--- a/zib2017-2020/mapping/excel/FunctieZien.xlsx
+++ b/zib2017-2020/mapping/excel/FunctieZien.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="translations" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">translations!$A$1:$O$6</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -165,7 +168,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE403"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA003"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -460,6 +492,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="15" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
@@ -621,6 +660,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O6"/>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"groen: geen wijzigingen"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"geel: patch wijziging"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"oranje: minor change"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"rood: major change"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>